--- a/nop-rule/model/nop-rule.api.xlsx
+++ b/nop-rule/model/nop-rule.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50E2C3-39C4-4531-83AA-148F0ECF99DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1966F96-58B2-45B5-B356-F2F5D5AEAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,10 @@
   </si>
   <si>
     <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
@@ -1570,6 +1574,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A1:A8"/>
@@ -1586,7 +1591,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1603,7 +1607,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1821,11 +1825,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1902,7 +1904,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A9" sqref="A9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2120,11 +2122,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA454E-4938-48A4-B6D8-3E2969E431AE}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2390,11 +2390,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2536,17 +2534,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.api.xlsx
+++ b/nop-rule/model/nop-rule.api.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1966F96-58B2-45B5-B356-F2F5D5AEAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867749B5-0682-4472-8A5D-ED6C7FE21A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="服务定义" sheetId="7" r:id="rId3"/>
     <sheet name="RuleRequestBean" sheetId="21" r:id="rId4"/>
-    <sheet name="RuleKeyBean" sheetId="22" r:id="rId5"/>
-    <sheet name="RuleMetaBean" sheetId="23" r:id="rId6"/>
+    <sheet name="RuleResultBean" sheetId="24" r:id="rId5"/>
+    <sheet name="RuleKeyBean" sheetId="22" r:id="rId6"/>
+    <sheet name="RuleMetaBean" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,11 +417,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleResultBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否匹配了所有业务条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,6 +656,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,12 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1381,87 +1414,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12">
+      <c r="A1" s="14">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1480,14 +1513,14 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1496,7 +1529,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1515,19 +1548,19 @@
       <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="23"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="13"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1546,34 +1579,36 @@
       <c r="G7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
@@ -1589,14 +1624,13 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H6:I6" location="RuleRequestBean!A1" display="WfStartRequestBean" xr:uid="{7186854E-A09C-4B9F-9903-9B917B52FD91}"/>
     <hyperlink ref="H7:I7" location="RuleKeyBean!A1" display="RuleKeyBean" xr:uid="{CEC0010D-729B-4511-B3F1-06B5DBE0DC55}"/>
     <hyperlink ref="J7:K7" location="RuleMetaBean!A1" display="RuleMetaBean" xr:uid="{58C94C14-7A46-411B-8A86-1C4C78D4930B}"/>
+    <hyperlink ref="J6:K6" location="RuleResultBean!A1" display="RuleResultBean" xr:uid="{30FA56E7-BAB1-4998-8BF9-42FE7EC5D97B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1607,7 +1641,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1627,107 +1661,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1825,7 +1859,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1864,21 +1898,21 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1900,6 +1934,336 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF4634-79AB-42EA-9015-A27F9073A905}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="5">
+        <v>500</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="9">
+        <v>160000</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A67ECD-B8AB-4093-BBB4-2827DFC05477}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1924,107 +2288,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2122,7 +2486,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2132,21 +2496,21 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2167,11 +2531,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA454E-4938-48A4-B6D8-3E2969E431AE}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2192,107 +2556,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2390,7 +2754,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2516,21 +2880,21 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nop-rule/model/nop-rule.api.xlsx
+++ b/nop-rule/model/nop-rule.api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867749B5-0682-4472-8A5D-ED6C7FE21A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CFAAA6-007A-4169-8920-127EEA05F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="服务定义" sheetId="7" r:id="rId3"/>
     <sheet name="RuleRequestBean" sheetId="21" r:id="rId4"/>
     <sheet name="RuleResultBean" sheetId="24" r:id="rId5"/>
-    <sheet name="RuleKeyBean" sheetId="22" r:id="rId6"/>
-    <sheet name="RuleMetaBean" sheetId="23" r:id="rId7"/>
+    <sheet name="RuleLogMessageBean" sheetId="25" r:id="rId6"/>
+    <sheet name="RuleKeyBean" sheetId="22" r:id="rId7"/>
+    <sheet name="RuleMetaBean" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="125">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +455,82 @@
   </si>
   <si>
     <t>是否匹配了所有业务条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logMessages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleLogMessageBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Log Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleNodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Node Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则节点Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Node Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleNodeLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则节点标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;io.nop.rule.api.beans.RuleLogMessageBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.sql.Timestamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,6 +733,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,15 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1414,87 +1491,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14">
+      <c r="A1" s="17">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1513,14 +1590,14 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1606,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1548,19 +1625,19 @@
       <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1579,39 +1656,34 @@
       <c r="G7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A1:A8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1624,6 +1696,11 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1641,7 +1718,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1661,107 +1738,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1898,21 +1975,21 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="25"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1935,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF4634-79AB-42EA-9015-A27F9073A905}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1958,107 +2035,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2228,35 +2305,64 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="25"/>
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="9">
+        <v>160000</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A12:O12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,6 +2370,332 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD750EB3-DBD7-4B85-995B-42543F715FC1}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="5">
+        <v>200</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="5">
+        <v>200</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A67ECD-B8AB-4093-BBB4-2827DFC05477}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2288,107 +2720,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2496,21 +2928,21 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="25"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2531,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA454E-4938-48A4-B6D8-3E2969E431AE}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -2556,107 +2988,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2880,35 +3312,35 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="25"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.api.xlsx
+++ b/nop-rule/model/nop-rule.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CFAAA6-007A-4169-8920-127EEA05F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAC64DA-7167-4809-A683-28ADEF3EC047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -418,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rule Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +527,10 @@
   </si>
   <si>
     <t>java.sql.Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,27 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,6 +762,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1491,87 +1491,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1590,14 +1590,14 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1625,19 +1625,19 @@
       <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="16"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1656,34 +1656,35 @@
       <c r="G7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A1:A8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1700,7 +1701,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1738,107 +1738,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1936,7 +1936,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1975,21 +1975,21 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2035,107 +2035,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2250,28 +2250,28 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -2288,7 +2288,7 @@
         <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
@@ -2310,19 +2310,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="9">
         <v>160000</v>
@@ -2334,35 +2334,35 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A12:O12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD750EB3-DBD7-4B85-995B-42543F715FC1}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2394,107 +2394,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2549,21 +2549,21 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2578,14 +2578,14 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
@@ -2607,14 +2607,14 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
@@ -2636,14 +2636,14 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
@@ -2660,35 +2660,35 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,107 +2720,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2918,7 +2918,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2928,21 +2928,21 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2967,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA454E-4938-48A4-B6D8-3E2969E431AE}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2988,107 +2988,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3186,7 +3186,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3312,35 +3312,35 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
